--- a/misc/QC Checklist.xlsx
+++ b/misc/QC Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab\Desktop\HZ\My Projects\تذرو افزار\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Pouya\my files\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB1E93-BA8C-451A-9176-DC287DCA20B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E29BE5-3A09-40B3-9359-031721F5C63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>آیا در مواردی که نیاز است کاربر شرحی وارد کند، فیلد از نطر عمودی Scroll می‏خورد؟ و در صورت کامل شدن خط، الباقی متن به خط بعدی انتقال داده می‏شود؟ و امکان زدن Enter در متن وجود دارد؟ (دقت داشته باشد که طول این فیلدها(تعداد کارکترها) حداکثر باشد)</t>
+  </si>
+  <si>
+    <t>پویا شیرعلی پور</t>
+  </si>
+  <si>
+    <t>1403/08/13</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -275,11 +284,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,9 +300,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -613,18 +622,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,488 +651,522 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="9"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="9"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="9"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="9"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="9"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="9"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="9"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="9"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="9"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
@@ -1127,48 +1174,16 @@
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
